--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1525.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1525.xlsx
@@ -354,10 +354,10 @@
         <v>1.796821021842165</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.088623730054311</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1525.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1525.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174885929633631</v>
+        <v>2.140614986419678</v>
       </c>
       <c r="B1">
-        <v>1.796821021842165</v>
+        <v>5.94737434387207</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.488657236099243</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.144976496696472</v>
       </c>
       <c r="E1">
-        <v>1.088623730054311</v>
+        <v>0.8179686069488525</v>
       </c>
     </row>
   </sheetData>
